--- a/数据整理/stocks/A股/上证主板/600115-东方航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600115-东方航空.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>630008</t>
+          <t>630002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商策略精选混合</t>
+          <t>华商盛世成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>79.72</t>
+          <t>23.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8160</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>630002</t>
+          <t>630008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商盛世成长混合</t>
+          <t>华商策略精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>90.99</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.59</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>90.99</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.59</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>30.84</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004988</t>
+          <t>630002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>人保双利优选混合A</t>
+          <t>华商盛世成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.13</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9535</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004989</t>
+          <t>630008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>人保双利优选混合C</t>
+          <t>华商策略精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.13</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007251</t>
+          <t>001173</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发睿享稳健增利混合</t>
+          <t>中欧瑾和灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31.96</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>66.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000849</t>
+          <t>003298</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇丰晋信双核策略混合A</t>
+          <t>嘉实物流产业股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>53.66</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -790,25 +900,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000850</t>
+          <t>000849</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信双核策略混合C</t>
+          <t>汇丰晋信双核策略混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>53.66</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.51</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001173</t>
+          <t>011097</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧瑾和灵活配置混合 - A</t>
+          <t>达诚宜创精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>66.40</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -846,26 +976,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001174</t>
+          <t>673030</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧瑾和灵活配置混合 - C</t>
+          <t>西部利得多策略优选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>66.40</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>52.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011097</t>
+          <t>003299</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合A</t>
+          <t>嘉实物流产业股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011098</t>
+          <t>160812</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合C</t>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>160812</t>
+          <t>007251</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+          <t>广发睿享稳健增利混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>87.20</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>630002</t>
+          <t>011098</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华商盛世成长混合</t>
+          <t>达诚宜创精选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>630008</t>
+          <t>000850</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华商策略精选混合</t>
+          <t>汇丰晋信双核策略混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>76.31</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>53.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>673030</t>
+          <t>004988</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>西部利得多策略优选灵活配置混合</t>
+          <t>人保双利优选混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>52.25</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003298</t>
+          <t>001174</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票A</t>
+          <t>中欧瑾和灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>84.09</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>66.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1070,26 +1280,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003299</t>
+          <t>004989</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>84.09</t>
-        </is>
-      </c>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600115-东方航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600115-东方航空.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1288,7 +1289,6 @@
           <t>人保双利优选混合C</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>23.13</t>
@@ -1304,6 +1304,74 @@
       </c>
       <c r="H16" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600115-东方航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600115-东方航空.xlsx
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600115-东方航空.xlsx
+++ b/数据整理/stocks/A股/上证主板/600115-东方航空.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,243 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>630002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华商盛世成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>23.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8160</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.01</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>630008</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华商策略精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2525</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003298</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0877</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003299</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0597</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004206</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华商元亨灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>30.84</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0562</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+      <c r="D3" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1317,64 +1139,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.01</v>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8160</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.27</v>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>